--- a/ETFs.xlsx
+++ b/ETFs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Vanguard FTSE All-World UCITS ETF (USD) Accumulating</t>
   </si>
@@ -32,57 +32,30 @@
     <t>iShares Core MSCI Emerging Markets IMI UCITS ETF (Acc)</t>
   </si>
   <si>
-    <t>A111X9</t>
-  </si>
-  <si>
     <t>iShares MSCI ACWI UCITS ETF (Acc)</t>
   </si>
   <si>
-    <t>A1JMDF</t>
-  </si>
-  <si>
-    <t>A2PKXG</t>
-  </si>
-  <si>
     <t>iShares Core MSCI World UCITS ETF USD (Acc)</t>
   </si>
   <si>
-    <t>A0RPWH</t>
-  </si>
-  <si>
     <t>Xtrackers MSCI Emerging Markets UCITS ETF 1C</t>
   </si>
   <si>
-    <t>A12GVR</t>
-  </si>
-  <si>
     <t>iShares Core S&amp;P 500 UCITS ETF (Acc)</t>
   </si>
   <si>
-    <t>A0YEDG</t>
-  </si>
-  <si>
     <t>iShares STOXX Europe 600 UCITS ETF (DE)</t>
   </si>
   <si>
     <t>iShares Core EURO STOXX 50 UCITS ETF EUR (Acc)</t>
   </si>
   <si>
-    <t>A0YEDJ</t>
-  </si>
-  <si>
     <t>iShares Core MSCI Japan IMI UCITS ETF</t>
   </si>
   <si>
-    <t>A0RPWL</t>
-  </si>
-  <si>
     <t>iShares Core MSCI Pacific ex Japan UCITS ETF (Acc)</t>
   </si>
   <si>
-    <t>A0YEDR</t>
-  </si>
-  <si>
     <t>iShares Core DAX UCITS ETF (DE)</t>
   </si>
   <si>
@@ -95,15 +68,9 @@
     <t>Amundi ETF FTSE EPRA NAREIT Global UCITS ETF DR</t>
   </si>
   <si>
-    <t>A2ATZC</t>
-  </si>
-  <si>
     <t>ETF</t>
   </si>
   <si>
-    <t>WKN</t>
-  </si>
-  <si>
     <t>Branche/Region</t>
   </si>
   <si>
@@ -119,48 +86,30 @@
     <t>Lyxor Commodities Thomson Reuters/CoreCommodity CRB TR UCITS ETF - Acc</t>
   </si>
   <si>
-    <t>LYX0Z2</t>
-  </si>
-  <si>
     <t>Amundi ETF Cash 3 Months EuroMTS Investment Grade UCITS ETF EUR (C)</t>
   </si>
   <si>
-    <t>A0RNWC</t>
-  </si>
-  <si>
     <t>Vanguard EUR Corporate Bond UCITS ETF Accumulating</t>
   </si>
   <si>
-    <t>A2PA8G</t>
-  </si>
-  <si>
     <t>Unternehmensanleihen</t>
   </si>
   <si>
     <t>Vanguard EUR Eurozone Government Bond UCITS ETF Accumulating</t>
   </si>
   <si>
-    <t>A2PA8D</t>
-  </si>
-  <si>
     <t>Staatsanleihen Eurozone</t>
   </si>
   <si>
     <t>UBS ETF (LU) Bloomberg Barclays USD Emerging Markets Sovereign UCITS ETF (hedged to EUR) A-acc</t>
   </si>
   <si>
-    <t>A1439H</t>
-  </si>
-  <si>
     <t>Staatsanleihen Emerging Markets</t>
   </si>
   <si>
     <t>iShares Core Global Aggregate Bond UCITS ETF EUR Hedged (Acc)</t>
   </si>
   <si>
-    <t>A2H6ZT</t>
-  </si>
-  <si>
     <t>Anleihen aus Industrie- und Schwellenländern weltweit</t>
   </si>
   <si>
@@ -203,42 +152,27 @@
     <t>Xtrackers MSCI World Information Technology UCITS ETF 1C</t>
   </si>
   <si>
-    <t>A113FM</t>
-  </si>
-  <si>
     <t>Informationstechnologie-Sektor in Industrieländern weltweit</t>
   </si>
   <si>
     <t>Xtrackers MSCI World Energy UCITS ETF 1C</t>
   </si>
   <si>
-    <t>A113FF</t>
-  </si>
-  <si>
     <t>Energie-Sektor in den Industrieländern weltweit</t>
   </si>
   <si>
     <t>iShares MSCI World ESG Enhanced UCITS ETF USD (Acc)</t>
   </si>
   <si>
-    <t>A2PCB4</t>
-  </si>
-  <si>
     <t>iShares MSCI World ESG Screened UCITS ETF USD (Acc)</t>
   </si>
   <si>
-    <t>A2N6TD</t>
-  </si>
-  <si>
     <t>Index enthält keine Unternehmen, die in Geschäftsfeldern in Verbindung mit fossilen Kohlebrennstoffen, umstrittenen Waffen, Tabak und anderen kontroversen Branchen tätig sind.</t>
   </si>
   <si>
     <t>iShares MSCI EMU ESG Screened UCITS ETF EUR (Acc)</t>
   </si>
   <si>
-    <t>A2N48B</t>
-  </si>
-  <si>
     <t>ESG-Aktien Industrieländer. Die Komponenten werden mit dem Ziel gewichtet, den Einfluss der Unternehmen auf die Faktoren Umwelt, Soziales und Governance zu maximieren</t>
   </si>
   <si>
@@ -251,9 +185,6 @@
     <t>IUSQ.DE</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>EUNL.DE</t>
   </si>
   <si>
@@ -281,27 +212,12 @@
     <t>XDWT.F</t>
   </si>
   <si>
-    <t>erst seit 2019 - nicht genügend historische Daten</t>
-  </si>
-  <si>
-    <t>erst seit 2017 - nicht genügend historische Daten</t>
-  </si>
-  <si>
-    <t>nicht genügend Volumen, teilweise keine Kursstellung</t>
-  </si>
-  <si>
     <t>XDW0.F</t>
   </si>
   <si>
-    <t>erst seit 2018 - nicht genügend historische Daten</t>
-  </si>
-  <si>
     <t>CRBU.L</t>
   </si>
   <si>
-    <t>Namensänderung in 2018</t>
-  </si>
-  <si>
     <t>C3M.PA</t>
   </si>
   <si>
@@ -309,9 +225,6 @@
   </si>
   <si>
     <t>VECP.L</t>
-  </si>
-  <si>
-    <t>erst seit 2016</t>
   </si>
   <si>
     <t>FRCK.DE</t>
@@ -372,18 +285,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -398,17 +305,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -723,498 +626,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="79.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="2"/>
-    <col min="6" max="6" width="11.42578125" style="5"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="56.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
-        <v>263530</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
-        <v>593393</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4">
-        <v>593392</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4">
-        <v>593397</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
